--- a/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
+++ b/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1080" windowWidth="28340" windowHeight="16060" tabRatio="951" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28340" windowHeight="16060" tabRatio="951" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Facility" sheetId="9" r:id="rId1"/>
@@ -16,21 +16,19 @@
     <sheet name="CaseStatusType" sheetId="3" r:id="rId7"/>
     <sheet name="ChargeClassType" sheetId="31" r:id="rId8"/>
     <sheet name="DomicileStatusType" sheetId="23" r:id="rId9"/>
-    <sheet name="EducationLevelType" sheetId="13" r:id="rId10"/>
-    <sheet name="JurisdictionType" sheetId="2" r:id="rId11"/>
-    <sheet name="LanguageType" sheetId="15" r:id="rId12"/>
-    <sheet name="MedicaidStatusType" sheetId="32" r:id="rId13"/>
-    <sheet name="MedicationType" sheetId="21" r:id="rId14"/>
-    <sheet name="MilitaryServiceStatusType" sheetId="16" r:id="rId15"/>
-    <sheet name="OccupationType" sheetId="12" r:id="rId16"/>
-    <sheet name="PersonEthnicityType" sheetId="17" r:id="rId17"/>
-    <sheet name="PersonRaceType" sheetId="7" r:id="rId18"/>
-    <sheet name="PersonSexType" sheetId="6" r:id="rId19"/>
-    <sheet name="ProgramEligibilityType" sheetId="22" r:id="rId20"/>
-    <sheet name="SexOffenderStatusType" sheetId="25" r:id="rId21"/>
-    <sheet name="TreatmentAdmissionReasonType" sheetId="28" r:id="rId22"/>
-    <sheet name="TreatmentStatusType" sheetId="27" r:id="rId23"/>
-    <sheet name="WorkReleaseStatusType" sheetId="24" r:id="rId24"/>
+    <sheet name="JurisdictionType" sheetId="2" r:id="rId10"/>
+    <sheet name="LanguageType" sheetId="15" r:id="rId11"/>
+    <sheet name="MedicaidStatusType" sheetId="32" r:id="rId12"/>
+    <sheet name="MedicationType" sheetId="21" r:id="rId13"/>
+    <sheet name="MilitaryServiceStatusType" sheetId="16" r:id="rId14"/>
+    <sheet name="PersonEthnicityType" sheetId="17" r:id="rId15"/>
+    <sheet name="PersonRaceType" sheetId="7" r:id="rId16"/>
+    <sheet name="PersonSexType" sheetId="6" r:id="rId17"/>
+    <sheet name="ProgramEligibilityType" sheetId="22" r:id="rId18"/>
+    <sheet name="SexOffenderStatusType" sheetId="25" r:id="rId19"/>
+    <sheet name="TreatmentAdmissionReasonType" sheetId="28" r:id="rId20"/>
+    <sheet name="TreatmentStatusType" sheetId="27" r:id="rId21"/>
+    <sheet name="WorkReleaseStatusType" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="777">
   <si>
     <t>JurisdictionTypeID</t>
   </si>
@@ -69,18 +67,6 @@
   </si>
   <si>
     <t>Capacity</t>
-  </si>
-  <si>
-    <t>OccupationTypeID</t>
-  </si>
-  <si>
-    <t>OccupationTypeDescription</t>
-  </si>
-  <si>
-    <t>EducationLevelTypeID</t>
-  </si>
-  <si>
-    <t>EducationLevelTypeDescription</t>
   </si>
   <si>
     <t>LanguageTypeID</t>
@@ -2440,8 +2426,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2515,7 +2509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2550,6 +2544,10 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2584,6 +2582,10 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2915,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2941,13 +2943,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1728</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2955,10 +2957,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2966,10 +2968,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2977,10 +2979,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3004,16 +3006,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3021,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3035,46 +3037,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3090,10 +3052,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3101,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C2" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3112,10 +3074,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="C3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3123,10 +3085,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3139,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3158,10 +3120,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="B1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3169,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3182,7 +3144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3202,13 +3164,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3237,10 +3199,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3248,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3259,10 +3221,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3270,10 +3232,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3281,10 +3243,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3292,10 +3254,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3303,10 +3265,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3314,10 +3276,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3325,10 +3287,76 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3344,36 +3372,96 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>748</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3387,13 +3475,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3409,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3420,10 +3509,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3431,10 +3520,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3450,91 +3539,35 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>752</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -3550,58 +3583,48 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3619,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="D292" sqref="D292"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3632,10 +3655,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3643,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3654,10 +3677,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3665,10 +3688,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3676,10 +3699,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3687,10 +3710,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3698,10 +3721,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3709,10 +3732,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3720,10 +3743,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3731,10 +3754,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3742,10 +3765,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3753,10 +3776,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3764,10 +3787,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3775,10 +3798,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3786,10 +3809,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3797,10 +3820,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3808,10 +3831,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3819,10 +3842,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3830,10 +3853,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3841,10 +3864,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3852,10 +3875,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3863,10 +3886,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3874,10 +3897,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3885,10 +3908,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3896,10 +3919,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3907,10 +3930,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3918,10 +3941,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3929,10 +3952,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3940,10 +3963,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3951,10 +3974,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C30" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3962,10 +3985,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3973,10 +3996,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3984,10 +4007,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3995,10 +4018,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4006,10 +4029,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4017,10 +4040,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4028,10 +4051,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4039,10 +4062,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4050,10 +4073,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4061,10 +4084,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4072,10 +4095,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4083,10 +4106,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4094,10 +4117,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4105,10 +4128,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4116,10 +4139,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4127,10 +4150,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4138,10 +4161,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4149,10 +4172,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C48" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4160,10 +4183,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4171,10 +4194,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4182,10 +4205,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4193,10 +4216,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4204,10 +4227,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4215,10 +4238,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4226,10 +4249,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4237,10 +4260,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4248,10 +4271,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4259,10 +4282,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C58" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4270,10 +4293,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4281,10 +4304,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4292,10 +4315,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C61" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4303,10 +4326,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4314,10 +4337,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C63" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4325,10 +4348,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C64" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4336,10 +4359,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C65" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4347,10 +4370,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4358,10 +4381,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4369,10 +4392,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4380,10 +4403,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C69" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4391,10 +4414,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4402,10 +4425,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C71" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4413,10 +4436,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C72" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4424,10 +4447,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C73" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4435,10 +4458,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C74" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4446,10 +4469,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C75" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4457,10 +4480,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4468,10 +4491,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4479,10 +4502,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4490,10 +4513,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4501,10 +4524,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4512,10 +4535,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C81" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4523,10 +4546,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4534,10 +4557,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4545,10 +4568,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C84" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4556,10 +4579,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C85" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4567,10 +4590,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4578,10 +4601,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C87" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4589,10 +4612,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C88" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4600,10 +4623,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C89" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4611,10 +4634,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C90" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4622,10 +4645,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C91" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4633,10 +4656,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C92" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4644,10 +4667,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C93" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4655,10 +4678,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C94" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4666,10 +4689,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4677,10 +4700,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C96" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4688,10 +4711,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C97" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4699,10 +4722,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C98" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4710,10 +4733,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4721,10 +4744,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C100" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4732,10 +4755,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C101" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4743,10 +4766,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C102" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4754,10 +4777,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C103" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4765,10 +4788,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4776,10 +4799,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C105" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4787,10 +4810,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C106" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4798,10 +4821,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C107" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4809,10 +4832,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C108" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4820,10 +4843,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C109" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4831,10 +4854,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C110" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4842,10 +4865,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C111" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4853,10 +4876,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C112" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4864,10 +4887,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C113" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4875,10 +4898,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4886,10 +4909,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C115" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4897,10 +4920,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C116" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4908,10 +4931,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C117" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4919,10 +4942,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C118" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4930,10 +4953,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4941,10 +4964,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C120" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4952,10 +4975,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C121" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4963,10 +4986,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C122" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4974,10 +4997,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C123" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4985,10 +5008,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C124" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4996,10 +5019,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C125" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5007,10 +5030,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C126" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5018,10 +5041,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C127" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5029,10 +5052,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C128" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5040,10 +5063,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C129" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5051,10 +5074,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C130" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5062,10 +5085,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C131" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5073,10 +5096,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C132" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5084,10 +5107,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C133" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5095,10 +5118,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C134" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5106,10 +5129,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C135" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5117,10 +5140,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C136" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5128,10 +5151,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C137" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5139,10 +5162,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C138" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5150,10 +5173,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C139" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5161,10 +5184,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5172,10 +5195,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C141" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5183,10 +5206,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C142" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5194,10 +5217,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C143" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5205,10 +5228,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C144" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5216,10 +5239,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C145" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5227,10 +5250,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C146" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5238,10 +5261,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C147" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5249,10 +5272,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C148" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5260,10 +5283,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C149" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5271,10 +5294,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C150" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5282,10 +5305,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C151" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5293,10 +5316,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C152" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5304,10 +5327,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C153" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5315,10 +5338,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C154" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5326,10 +5349,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C155" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5337,10 +5360,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C156" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5348,10 +5371,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C157" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5359,10 +5382,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C158" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5370,10 +5393,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C159" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5381,10 +5404,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C160" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5392,10 +5415,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C161" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -5403,10 +5426,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C162" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5414,10 +5437,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C163" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5425,10 +5448,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C164" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -5436,10 +5459,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C165" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5447,10 +5470,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C166" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5458,10 +5481,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C167" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5469,10 +5492,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C168" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5480,10 +5503,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C169" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5491,10 +5514,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C170" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5502,10 +5525,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C171" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5513,10 +5536,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C172" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5524,10 +5547,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C173" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -5535,10 +5558,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C174" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5546,10 +5569,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C175" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5557,10 +5580,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C176" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5568,10 +5591,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C177" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5579,10 +5602,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C178" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5590,10 +5613,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C179" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5601,10 +5624,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C180" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5612,10 +5635,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C181" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5623,10 +5646,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C182" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5634,10 +5657,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C183" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5645,10 +5668,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C184" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5656,10 +5679,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C185" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5667,10 +5690,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C186" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5678,10 +5701,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C187" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5689,10 +5712,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C188" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5700,10 +5723,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C189" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5711,10 +5734,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C190" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5722,10 +5745,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C191" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5733,10 +5756,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C192" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5744,10 +5767,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C193" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5755,10 +5778,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C194" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5766,10 +5789,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C195" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5777,10 +5800,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C196" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5788,10 +5811,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C197" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5799,10 +5822,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C198" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5810,10 +5833,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C199" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5821,10 +5844,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C200" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5832,10 +5855,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C201" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5843,10 +5866,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C202" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5854,10 +5877,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C203" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5865,10 +5888,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C204" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5876,10 +5899,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C205" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5887,10 +5910,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C206" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5898,10 +5921,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C207" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5909,10 +5932,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C208" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5920,10 +5943,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C209" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5931,10 +5954,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C210" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5942,10 +5965,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C211" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5953,10 +5976,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C212" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5964,10 +5987,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C213" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5975,10 +5998,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C214" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5986,10 +6009,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C215" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5997,10 +6020,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C216" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -6008,10 +6031,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C217" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -6019,10 +6042,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C218" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -6030,10 +6053,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C219" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6041,10 +6064,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C220" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -6052,10 +6075,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C221" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -6063,10 +6086,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C222" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6074,10 +6097,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C223" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -6085,10 +6108,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C224" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6096,10 +6119,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6107,10 +6130,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C226" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6118,10 +6141,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C227" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6129,10 +6152,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C228" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6140,10 +6163,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C229" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6151,10 +6174,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C230" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6162,10 +6185,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C231" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6173,10 +6196,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C232" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6184,10 +6207,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C233" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6195,10 +6218,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C234" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6206,10 +6229,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C235" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6217,10 +6240,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C236" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6228,10 +6251,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C237" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6239,10 +6262,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C238" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6250,10 +6273,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C239" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6261,10 +6284,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C240" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6272,10 +6295,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C241" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6283,10 +6306,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C242" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6294,10 +6317,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C243" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -6305,10 +6328,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C244" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -6316,10 +6339,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C245" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -6327,10 +6350,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C246" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6338,10 +6361,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C247" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -6349,10 +6372,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C248" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -6360,10 +6383,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C249" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6371,10 +6394,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C250" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -6382,10 +6405,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C251" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -6393,10 +6416,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C252" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -6404,10 +6427,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C253" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -6415,10 +6438,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C254" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6426,10 +6449,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C255" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6437,10 +6460,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C256" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6448,10 +6471,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C257" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6459,10 +6482,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C258" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6470,10 +6493,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C259" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6481,10 +6504,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C260" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6492,10 +6515,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C261" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6503,10 +6526,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C262" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6514,10 +6537,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C263" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -6525,10 +6548,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C264" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6536,10 +6559,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C265" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6547,10 +6570,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C266" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6558,10 +6581,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C267" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -6569,10 +6592,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C268" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6580,10 +6603,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C269" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6591,10 +6614,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C270" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6602,10 +6625,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C271" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6613,10 +6636,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C272" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6624,10 +6647,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C273" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6635,10 +6658,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C274" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6646,10 +6669,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C275" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6657,10 +6680,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C276" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6668,10 +6691,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C277" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6679,10 +6702,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="C278" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6690,10 +6713,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C279" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6701,10 +6724,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C280" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6712,10 +6735,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C281" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6723,10 +6746,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C282" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6734,10 +6757,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C283" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6745,10 +6768,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C284" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6756,10 +6779,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C285" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6767,10 +6790,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C286" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6778,10 +6801,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C287" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6789,10 +6812,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C288" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6800,10 +6823,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C289" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6811,10 +6834,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C290" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6822,10 +6845,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6847,21 +6870,21 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>765</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6869,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6884,107 +6907,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>756</v>
-      </c>
-      <c r="B1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>769</v>
-      </c>
-      <c r="B1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -7003,10 +6925,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7014,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7027,7 +6949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7043,10 +6965,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7054,7 +6976,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7062,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7070,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7103,10 +7025,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -7136,10 +7058,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7147,10 +7069,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7158,10 +7080,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7169,10 +7091,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7180,10 +7102,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7191,10 +7113,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7202,10 +7124,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7213,10 +7135,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7224,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7235,10 +7157,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7246,10 +7168,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7257,10 +7179,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7268,10 +7190,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7279,10 +7201,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7290,10 +7212,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7301,10 +7223,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7312,10 +7234,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7323,10 +7245,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7334,10 +7256,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7345,10 +7267,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7367,7 +7289,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7378,10 +7300,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7389,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7400,10 +7322,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7411,10 +7333,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7422,10 +7344,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7433,10 +7355,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7444,10 +7366,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7455,10 +7377,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7466,10 +7388,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7477,10 +7399,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7488,10 +7410,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7499,10 +7421,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7510,10 +7432,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7521,10 +7443,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7532,10 +7454,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7543,10 +7465,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7565,7 +7487,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7587,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7598,10 +7520,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7609,10 +7531,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7620,10 +7542,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7631,10 +7553,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7642,10 +7564,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7653,10 +7575,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7664,10 +7586,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7675,10 +7597,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7686,10 +7608,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7697,10 +7619,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7708,10 +7630,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7719,10 +7641,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7730,10 +7652,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7741,10 +7663,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7752,10 +7674,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7763,10 +7685,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7774,10 +7696,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7785,10 +7707,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7796,10 +7718,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7807,10 +7729,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7818,10 +7740,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7863,10 +7785,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7874,10 +7796,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7885,10 +7807,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7896,10 +7818,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7907,10 +7829,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7918,10 +7840,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7929,10 +7851,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7940,10 +7862,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -7973,10 +7895,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7984,10 +7906,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7995,10 +7917,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8006,10 +7928,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8017,10 +7939,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8028,10 +7950,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +7985,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8074,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
+++ b/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28340" windowHeight="16060" tabRatio="951" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28340" windowHeight="16060" tabRatio="951" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Facility" sheetId="9" r:id="rId1"/>
@@ -13,22 +13,21 @@
     <sheet name="SupervisionUnitType" sheetId="10" r:id="rId4"/>
     <sheet name="BondStatusType" sheetId="18" r:id="rId5"/>
     <sheet name="BondType" sheetId="5" r:id="rId6"/>
-    <sheet name="CaseStatusType" sheetId="3" r:id="rId7"/>
-    <sheet name="ChargeClassType" sheetId="31" r:id="rId8"/>
-    <sheet name="DomicileStatusType" sheetId="23" r:id="rId9"/>
-    <sheet name="JurisdictionType" sheetId="2" r:id="rId10"/>
-    <sheet name="LanguageType" sheetId="15" r:id="rId11"/>
-    <sheet name="MedicaidStatusType" sheetId="32" r:id="rId12"/>
-    <sheet name="MedicationType" sheetId="21" r:id="rId13"/>
-    <sheet name="MilitaryServiceStatusType" sheetId="16" r:id="rId14"/>
-    <sheet name="PersonEthnicityType" sheetId="17" r:id="rId15"/>
-    <sheet name="PersonRaceType" sheetId="7" r:id="rId16"/>
-    <sheet name="PersonSexType" sheetId="6" r:id="rId17"/>
-    <sheet name="ProgramEligibilityType" sheetId="22" r:id="rId18"/>
-    <sheet name="SexOffenderStatusType" sheetId="25" r:id="rId19"/>
-    <sheet name="TreatmentAdmissionReasonType" sheetId="28" r:id="rId20"/>
-    <sheet name="TreatmentStatusType" sheetId="27" r:id="rId21"/>
-    <sheet name="WorkReleaseStatusType" sheetId="24" r:id="rId22"/>
+    <sheet name="ChargeClassType" sheetId="31" r:id="rId7"/>
+    <sheet name="DomicileStatusType" sheetId="23" r:id="rId8"/>
+    <sheet name="JurisdictionType" sheetId="2" r:id="rId9"/>
+    <sheet name="LanguageType" sheetId="15" r:id="rId10"/>
+    <sheet name="MedicaidStatusType" sheetId="32" r:id="rId11"/>
+    <sheet name="MedicationType" sheetId="21" r:id="rId12"/>
+    <sheet name="MilitaryServiceStatusType" sheetId="16" r:id="rId13"/>
+    <sheet name="PersonEthnicityType" sheetId="17" r:id="rId14"/>
+    <sheet name="PersonRaceType" sheetId="7" r:id="rId15"/>
+    <sheet name="PersonSexType" sheetId="6" r:id="rId16"/>
+    <sheet name="ProgramEligibilityType" sheetId="22" r:id="rId17"/>
+    <sheet name="SexOffenderStatusType" sheetId="25" r:id="rId18"/>
+    <sheet name="TreatmentAdmissionReasonType" sheetId="28" r:id="rId19"/>
+    <sheet name="TreatmentStatusType" sheetId="27" r:id="rId20"/>
+    <sheet name="WorkReleaseStatusType" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="768">
   <si>
     <t>JurisdictionTypeID</t>
   </si>
@@ -48,12 +47,6 @@
     <t>JurisdictionTypeDescription</t>
   </si>
   <si>
-    <t>CaseStatusTypeID</t>
-  </si>
-  <si>
-    <t>CaseStatusTypeDescription</t>
-  </si>
-  <si>
     <t>BondTypeID</t>
   </si>
   <si>
@@ -430,27 +423,6 @@
   </si>
   <si>
     <t>WRIT</t>
-  </si>
-  <si>
-    <t>AWST</t>
-  </si>
-  <si>
-    <t>CVIJ</t>
-  </si>
-  <si>
-    <t>PRET</t>
-  </si>
-  <si>
-    <t>Awaiting Sentencing</t>
-  </si>
-  <si>
-    <t>Civil Judgement</t>
-  </si>
-  <si>
-    <t>Other Non-Sentenced</t>
-  </si>
-  <si>
-    <t>Pre Trial</t>
   </si>
   <si>
     <t>A Module</t>
@@ -2929,13 +2901,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2943,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2">
         <v>1728</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2957,10 +2929,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2968,10 +2940,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2979,10 +2951,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2997,46 +2969,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3052,10 +2984,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3063,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="C2" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3074,10 +3006,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C3" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3085,10 +3017,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3120,10 +3052,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B1" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3131,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3144,7 +3076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3164,13 +3096,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -3199,10 +3131,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B1" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3210,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3221,10 +3153,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3232,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3243,10 +3175,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3254,10 +3186,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3265,10 +3197,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3276,10 +3208,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3287,10 +3219,76 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3305,72 +3303,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>746</v>
-      </c>
-      <c r="B1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3387,10 +3319,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B1" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3398,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3409,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3420,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3431,10 +3363,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3442,10 +3374,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3453,10 +3385,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3470,7 +3402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3487,10 +3419,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B1" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3498,10 +3430,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3509,10 +3441,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3520,10 +3452,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3537,7 +3469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3556,10 +3488,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3567,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3597,10 +3529,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B1" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3608,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3616,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3624,7 +3556,51 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3655,10 +3631,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3666,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3677,10 +3653,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3688,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3699,10 +3675,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3710,10 +3686,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3721,10 +3697,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3732,10 +3708,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3743,10 +3719,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3754,10 +3730,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3765,10 +3741,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3776,10 +3752,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3787,10 +3763,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3798,10 +3774,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3809,10 +3785,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3820,10 +3796,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3831,10 +3807,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3842,10 +3818,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3853,10 +3829,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3864,10 +3840,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3875,10 +3851,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3886,10 +3862,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3897,10 +3873,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3908,10 +3884,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C24" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3919,10 +3895,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3930,10 +3906,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3941,10 +3917,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3952,10 +3928,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3963,10 +3939,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3974,10 +3950,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3985,10 +3961,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3996,10 +3972,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4007,10 +3983,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4018,10 +3994,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4029,10 +4005,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4040,10 +4016,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4051,10 +4027,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4062,10 +4038,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4073,10 +4049,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4084,10 +4060,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4095,10 +4071,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4106,10 +4082,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4117,10 +4093,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4128,10 +4104,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4139,10 +4115,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4150,10 +4126,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4161,10 +4137,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4172,10 +4148,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4183,10 +4159,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4194,10 +4170,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4205,10 +4181,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4216,10 +4192,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4227,10 +4203,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4238,10 +4214,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4249,10 +4225,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4260,10 +4236,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C56" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4271,10 +4247,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C57" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4282,10 +4258,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C58" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4293,10 +4269,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4304,10 +4280,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4315,10 +4291,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4326,10 +4302,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4337,10 +4313,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C63" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4348,10 +4324,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4359,10 +4335,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4370,10 +4346,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C66" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4381,10 +4357,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C67" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4392,10 +4368,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4403,10 +4379,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C69" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4414,10 +4390,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4425,10 +4401,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4436,10 +4412,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4447,10 +4423,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4458,10 +4434,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4469,10 +4445,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C75" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4480,10 +4456,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4491,10 +4467,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4502,10 +4478,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4513,10 +4489,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C79" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4524,10 +4500,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4535,10 +4511,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4546,10 +4522,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4557,10 +4533,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C83" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4568,10 +4544,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C84" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4579,10 +4555,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4590,10 +4566,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4601,10 +4577,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4612,10 +4588,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4623,10 +4599,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C89" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4634,10 +4610,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4645,10 +4621,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C91" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4656,10 +4632,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C92" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4667,10 +4643,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4678,10 +4654,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C94" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4689,10 +4665,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4700,10 +4676,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="C96" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4711,10 +4687,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C97" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4722,10 +4698,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C98" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4733,10 +4709,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C99" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4744,10 +4720,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C100" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4755,10 +4731,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C101" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4766,10 +4742,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C102" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4777,10 +4753,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C103" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4788,10 +4764,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C104" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4799,10 +4775,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C105" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4810,10 +4786,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C106" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4821,10 +4797,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C107" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4832,10 +4808,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C108" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4843,10 +4819,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C109" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4854,10 +4830,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C110" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4865,10 +4841,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C111" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4876,10 +4852,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C112" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4887,10 +4863,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C113" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4898,10 +4874,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C114" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4909,10 +4885,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C115" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4920,10 +4896,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C116" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4931,10 +4907,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4942,10 +4918,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C118" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4953,10 +4929,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C119" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4964,10 +4940,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C120" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4975,10 +4951,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C121" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4986,10 +4962,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4997,10 +4973,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C123" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5008,10 +4984,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C124" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5019,10 +4995,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C125" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5030,10 +5006,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C126" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5041,10 +5017,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C127" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5052,10 +5028,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C128" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5063,10 +5039,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C129" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5074,10 +5050,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C130" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5085,10 +5061,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C131" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5096,10 +5072,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C132" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5107,10 +5083,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C133" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5118,10 +5094,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="C134" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5129,10 +5105,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C135" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5140,10 +5116,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C136" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5151,10 +5127,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C137" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5162,10 +5138,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C138" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5173,10 +5149,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C139" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5184,10 +5160,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C140" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5195,10 +5171,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C141" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5206,10 +5182,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C142" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5217,10 +5193,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C143" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5228,10 +5204,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C144" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5239,10 +5215,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C145" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5250,10 +5226,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C146" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5261,10 +5237,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C147" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5272,10 +5248,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C148" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5283,10 +5259,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C149" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5294,10 +5270,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C150" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5305,10 +5281,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C151" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5316,10 +5292,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C152" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5327,10 +5303,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C153" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5338,10 +5314,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C154" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5349,10 +5325,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C155" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5360,10 +5336,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C156" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5371,10 +5347,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C157" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5382,10 +5358,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C158" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5393,10 +5369,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C159" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5404,10 +5380,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C160" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5415,10 +5391,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C161" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -5426,10 +5402,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C162" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5437,10 +5413,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C163" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5448,10 +5424,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C164" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -5459,10 +5435,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C165" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5470,10 +5446,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C166" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5481,10 +5457,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5492,10 +5468,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C168" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5503,10 +5479,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C169" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5514,10 +5490,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C170" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5525,10 +5501,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C171" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5536,10 +5512,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C172" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5547,10 +5523,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C173" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -5558,10 +5534,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C174" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5569,10 +5545,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C175" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5580,10 +5556,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C176" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5591,10 +5567,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C177" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5602,10 +5578,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C178" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5613,10 +5589,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C179" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5624,10 +5600,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C180" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5635,10 +5611,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C181" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5646,10 +5622,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C182" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5657,10 +5633,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5668,10 +5644,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="C184" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5679,10 +5655,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C185" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5690,10 +5666,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C186" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5701,10 +5677,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5712,10 +5688,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C188" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5723,10 +5699,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C189" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5734,10 +5710,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C190" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5745,10 +5721,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C191" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5756,10 +5732,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C192" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5767,10 +5743,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C193" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5778,10 +5754,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C194" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5789,10 +5765,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C195" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5800,10 +5776,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C196" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5811,10 +5787,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C197" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5822,10 +5798,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C198" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5833,10 +5809,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C199" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5844,10 +5820,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C200" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5855,10 +5831,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C201" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5866,10 +5842,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C202" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5877,10 +5853,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C203" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5888,10 +5864,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C204" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5899,10 +5875,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C205" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5910,10 +5886,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C206" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5921,10 +5897,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C207" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5932,10 +5908,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C208" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5943,10 +5919,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C209" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5954,10 +5930,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C210" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5965,10 +5941,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C211" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5976,10 +5952,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C212" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5987,10 +5963,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C213" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5998,10 +5974,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C214" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -6009,10 +5985,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C215" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -6020,10 +5996,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C216" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -6031,10 +6007,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C217" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -6042,10 +6018,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C218" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -6053,10 +6029,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C219" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6064,10 +6040,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C220" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -6075,10 +6051,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C221" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -6086,10 +6062,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C222" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6097,10 +6073,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C223" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -6108,10 +6084,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C224" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6119,10 +6095,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C225" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6130,10 +6106,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C226" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6141,10 +6117,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C227" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6152,10 +6128,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C228" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6163,10 +6139,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C229" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6174,10 +6150,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C230" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6185,10 +6161,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C231" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6196,10 +6172,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C232" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6207,10 +6183,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C233" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6218,10 +6194,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C234" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6229,10 +6205,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C235" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6240,10 +6216,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C236" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6251,10 +6227,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C237" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6262,10 +6238,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="C238" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6273,10 +6249,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="C239" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6284,10 +6260,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C240" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6295,10 +6271,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="C241" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6306,10 +6282,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C242" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6317,10 +6293,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C243" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -6328,10 +6304,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C244" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -6339,10 +6315,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C245" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -6350,10 +6326,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C246" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6361,10 +6337,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="C247" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -6372,10 +6348,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C248" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -6383,10 +6359,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="C249" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6394,10 +6370,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="C250" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -6405,10 +6381,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C251" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -6416,10 +6392,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="C252" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -6427,10 +6403,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C253" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -6438,10 +6414,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C254" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6449,10 +6425,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C255" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6460,10 +6436,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C256" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6471,10 +6447,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C257" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6482,10 +6458,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C258" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6493,10 +6469,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="C259" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6504,10 +6480,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="C260" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6515,10 +6491,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="C261" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6526,10 +6502,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="C262" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6537,10 +6513,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="C263" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -6548,10 +6524,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C264" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6559,10 +6535,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C265" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6570,10 +6546,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C266" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6581,10 +6557,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C267" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -6592,10 +6568,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="C268" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6603,10 +6579,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="C269" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6614,10 +6590,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C270" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6625,10 +6601,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C271" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6636,10 +6612,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C272" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6647,10 +6623,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="C273" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6658,10 +6634,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C274" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6669,10 +6645,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C275" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6680,10 +6656,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="C276" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6691,10 +6667,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="C277" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6702,10 +6678,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="C278" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6713,10 +6689,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C279" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6724,10 +6700,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="C280" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6735,10 +6711,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="C281" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6746,10 +6722,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="C282" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6757,10 +6733,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C283" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6768,10 +6744,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C284" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6779,10 +6755,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C285" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6790,10 +6766,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C286" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6801,10 +6777,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C287" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6812,10 +6788,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="C288" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6823,10 +6799,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C289" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6834,10 +6810,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="C290" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6845,10 +6821,10 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C291" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6870,50 +6846,6 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>765</v>
-      </c>
-      <c r="B1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6925,10 +6857,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B1" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6936,7 +6868,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6949,7 +6881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6965,10 +6897,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6976,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6984,7 +6916,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6992,7 +6924,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7025,10 +6957,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B1" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -7058,10 +6990,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7069,10 +7001,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7080,10 +7012,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7091,10 +7023,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7102,10 +7034,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7113,10 +7045,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7124,10 +7056,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7135,10 +7067,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7146,10 +7078,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7157,10 +7089,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7168,10 +7100,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7179,10 +7111,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7190,10 +7122,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7201,10 +7133,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7212,10 +7144,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7223,10 +7155,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7234,10 +7166,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7245,10 +7177,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7256,10 +7188,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7267,10 +7199,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7300,10 +7232,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B1" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7311,10 +7243,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7322,10 +7254,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7333,10 +7265,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7344,10 +7276,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7355,10 +7287,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7366,10 +7298,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7377,10 +7309,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7388,10 +7320,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7399,10 +7331,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7410,10 +7342,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7421,10 +7353,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7432,10 +7364,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7443,10 +7375,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7454,10 +7386,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7465,10 +7397,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7498,10 +7430,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7509,10 +7441,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7520,10 +7452,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7531,10 +7463,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7542,10 +7474,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7553,10 +7485,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7564,10 +7496,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7575,10 +7507,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7586,10 +7518,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7597,10 +7529,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7608,10 +7540,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7619,10 +7551,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7630,10 +7562,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7641,10 +7573,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7652,10 +7584,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7663,10 +7595,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7674,10 +7606,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7685,10 +7617,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7696,10 +7628,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7707,10 +7639,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7718,10 +7650,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7729,10 +7661,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7740,10 +7672,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7759,131 +7691,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7895,10 +7705,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="B1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7906,10 +7716,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7917,10 +7727,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7928,10 +7738,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7939,10 +7749,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C5" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7950,10 +7760,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -7966,7 +7776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -7985,10 +7795,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7996,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -8008,4 +7818,44 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
+++ b/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28340" windowHeight="16060" tabRatio="951" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="28340" windowHeight="16060" tabRatio="951" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Facility" sheetId="9" r:id="rId1"/>
@@ -18,16 +18,15 @@
     <sheet name="JurisdictionType" sheetId="2" r:id="rId9"/>
     <sheet name="LanguageType" sheetId="15" r:id="rId10"/>
     <sheet name="MedicaidStatusType" sheetId="32" r:id="rId11"/>
-    <sheet name="MedicationType" sheetId="21" r:id="rId12"/>
-    <sheet name="MilitaryServiceStatusType" sheetId="16" r:id="rId13"/>
-    <sheet name="PersonEthnicityType" sheetId="17" r:id="rId14"/>
-    <sheet name="PersonRaceType" sheetId="7" r:id="rId15"/>
-    <sheet name="PersonSexType" sheetId="6" r:id="rId16"/>
-    <sheet name="ProgramEligibilityType" sheetId="22" r:id="rId17"/>
-    <sheet name="SexOffenderStatusType" sheetId="25" r:id="rId18"/>
-    <sheet name="TreatmentAdmissionReasonType" sheetId="28" r:id="rId19"/>
-    <sheet name="TreatmentStatusType" sheetId="27" r:id="rId20"/>
-    <sheet name="WorkReleaseStatusType" sheetId="24" r:id="rId21"/>
+    <sheet name="MilitaryServiceStatusType" sheetId="16" r:id="rId12"/>
+    <sheet name="PersonEthnicityType" sheetId="17" r:id="rId13"/>
+    <sheet name="PersonRaceType" sheetId="7" r:id="rId14"/>
+    <sheet name="PersonSexType" sheetId="6" r:id="rId15"/>
+    <sheet name="ProgramEligibilityType" sheetId="22" r:id="rId16"/>
+    <sheet name="SexOffenderStatusType" sheetId="25" r:id="rId17"/>
+    <sheet name="TreatmentAdmissionReasonType" sheetId="28" r:id="rId18"/>
+    <sheet name="TreatmentStatusType" sheetId="27" r:id="rId19"/>
+    <sheet name="WorkReleaseStatusType" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="765">
   <si>
     <t>JurisdictionTypeID</t>
   </si>
@@ -2235,15 +2234,6 @@
   </si>
   <si>
     <t>MedicaidStatusTypeDescription</t>
-  </si>
-  <si>
-    <t>MedicationTypeID</t>
-  </si>
-  <si>
-    <t>GenericProductIdentification</t>
-  </si>
-  <si>
-    <t>MedicationTypeDescription</t>
   </si>
   <si>
     <t>MilitaryServiceStatusTypeID</t>
@@ -2349,7 +2339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2375,6 +2365,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2477,9 +2474,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2995,10 +2993,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3006,10 +3004,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3078,45 +3076,6 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="38.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>732</v>
-      </c>
-      <c r="B1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3131,10 +3090,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3236,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3252,10 +3211,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3302,7 +3261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3319,10 +3278,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3402,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3419,10 +3378,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3469,7 +3428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
@@ -3513,7 +3472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3529,10 +3488,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3540,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3548,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3556,6 +3515,50 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3578,21 +3581,21 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B1" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3605,7 +3608,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3631,10 +3633,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6839,49 +6841,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="5" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>745</v>
-      </c>
-      <c r="B1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -6908,7 +6867,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6916,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6990,10 +6949,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7100,7 +7059,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C11" t="s">
         <v>120</v>
@@ -7111,7 +7070,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C12" t="s">
         <v>119</v>
@@ -7693,7 +7652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -7716,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C2" t="s">
         <v>144</v>
@@ -7727,7 +7686,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C3" t="s">
         <v>143</v>
@@ -7738,7 +7697,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -7749,10 +7708,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7822,10 +7781,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7843,10 +7802,1130 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>99999</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
+++ b/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28340" windowHeight="16060" tabRatio="951" activeTab="8"/>
+    <workbookView xWindow="31940" yWindow="2020" windowWidth="32000" windowHeight="17500" tabRatio="951" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Facility" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="790">
   <si>
     <t>JurisdictionTypeID</t>
   </si>
@@ -127,12 +127,6 @@
     <t>PR</t>
   </si>
   <si>
-    <t>PROP</t>
-  </si>
-  <si>
-    <t>CRED</t>
-  </si>
-  <si>
     <t>CSP</t>
   </si>
   <si>
@@ -181,12 +175,6 @@
     <t>PR BOND</t>
   </si>
   <si>
-    <t>PROPERTY BOND</t>
-  </si>
-  <si>
-    <t>CREDIT CARD</t>
-  </si>
-  <si>
     <t>CASH/SURETY/PROPERTY</t>
   </si>
   <si>
@@ -2333,15 +2321,109 @@
   </si>
   <si>
     <t>Registered</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>WTRN</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>INTR</t>
+  </si>
+  <si>
+    <t>SUSR</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>WRTN</t>
+  </si>
+  <si>
+    <t>SRSP</t>
+  </si>
+  <si>
+    <t>SUSP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>CSRJ</t>
+  </si>
+  <si>
+    <t>CVLJ</t>
+  </si>
+  <si>
+    <t>NOBJ</t>
+  </si>
+  <si>
+    <t>NOCG</t>
+  </si>
+  <si>
+    <t>NODH</t>
+  </si>
+  <si>
+    <t>OC</t>
+  </si>
+  <si>
+    <t>ROJ</t>
+  </si>
+  <si>
+    <t>ROTJ</t>
+  </si>
+  <si>
+    <t>RRTJ</t>
+  </si>
+  <si>
+    <t>RTJO</t>
+  </si>
+  <si>
+    <t>RTO</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>VAC</t>
+  </si>
+  <si>
+    <t>WRN</t>
+  </si>
+  <si>
+    <t>WTR</t>
+  </si>
+  <si>
+    <t>WTRQ</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>RTRJ</t>
+  </si>
+  <si>
+    <t>PEND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2395,91 +2477,132 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="118">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2518,6 +2641,26 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2556,10 +2699,36 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="77"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2887,11 +3056,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
@@ -2913,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>1728</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2927,10 +3096,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2938,10 +3107,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2974,7 +3143,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" customWidth="1"/>
@@ -2993,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="C2" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3004,10 +3173,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="C3" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3042,7 +3211,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
@@ -3050,10 +3219,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3082,7 +3251,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
     <col min="2" max="2" width="31.83203125" customWidth="1"/>
@@ -3090,10 +3259,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3101,10 +3270,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3112,10 +3281,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3123,10 +3292,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3134,10 +3303,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3145,10 +3314,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3156,10 +3325,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3167,10 +3336,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3203,7 +3372,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
@@ -3211,10 +3380,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3222,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3233,10 +3402,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3265,11 +3434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="32.6640625" customWidth="1"/>
@@ -3278,10 +3447,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3365,11 +3534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AY1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.83203125" customWidth="1"/>
@@ -3378,10 +3547,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3389,10 +3558,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3400,10 +3569,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3439,7 +3608,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -3447,10 +3616,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3480,7 +3649,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
@@ -3488,10 +3657,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3499,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3507,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3540,7 +3709,7 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
@@ -3548,10 +3717,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3580,11 +3749,11 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="CL1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
@@ -3592,10 +3761,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3621,10 +3790,10 @@
   <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A291" sqref="A291:XFD291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
@@ -3633,10 +3802,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3644,10 +3813,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3655,10 +3824,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3666,10 +3835,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3677,10 +3846,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3688,10 +3857,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3699,10 +3868,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3710,10 +3879,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3721,10 +3890,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3732,10 +3901,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3743,10 +3912,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3754,10 +3923,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3765,10 +3934,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3776,10 +3945,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3787,10 +3956,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3798,10 +3967,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3809,10 +3978,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3820,10 +3989,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3831,10 +4000,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3842,10 +4011,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3853,10 +4022,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3864,10 +4033,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3875,10 +4044,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3886,10 +4055,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3897,10 +4066,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3908,10 +4077,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3919,10 +4088,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3930,10 +4099,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3941,10 +4110,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3952,10 +4121,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3963,10 +4132,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3974,10 +4143,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3985,10 +4154,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3996,10 +4165,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4007,10 +4176,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4018,10 +4187,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4029,10 +4198,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4040,10 +4209,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4051,10 +4220,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4062,10 +4231,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4073,10 +4242,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4084,10 +4253,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C42" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4095,10 +4264,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4106,10 +4275,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4117,10 +4286,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4128,10 +4297,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4139,10 +4308,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4150,10 +4319,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4161,10 +4330,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4172,10 +4341,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4183,10 +4352,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4194,10 +4363,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4205,10 +4374,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4216,10 +4385,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4227,10 +4396,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4238,10 +4407,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4249,10 +4418,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4260,10 +4429,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4271,10 +4440,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4282,10 +4451,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C60" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4293,10 +4462,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C61" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4304,10 +4473,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C62" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4315,10 +4484,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4326,10 +4495,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C64" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4337,10 +4506,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4348,10 +4517,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4359,10 +4528,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4370,10 +4539,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4381,10 +4550,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4392,10 +4561,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4403,10 +4572,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4414,10 +4583,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4425,10 +4594,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4436,10 +4605,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C74" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4447,10 +4616,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4458,10 +4627,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C76" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4469,10 +4638,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C77" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4480,10 +4649,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C78" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4491,10 +4660,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C79" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4502,10 +4671,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4513,10 +4682,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4524,10 +4693,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4535,10 +4704,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C83" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4546,10 +4715,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C84" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4557,10 +4726,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C85" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4568,10 +4737,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C86" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4579,10 +4748,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C87" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4590,10 +4759,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C88" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4601,10 +4770,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C89" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4612,10 +4781,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4623,10 +4792,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4634,10 +4803,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C92" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4645,10 +4814,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C93" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4656,10 +4825,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4667,10 +4836,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C95" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4678,10 +4847,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C96" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4689,10 +4858,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C97" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4700,10 +4869,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C98" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4711,10 +4880,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C99" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4722,10 +4891,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C100" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4733,10 +4902,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C101" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4744,10 +4913,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C102" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4755,10 +4924,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C103" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4766,10 +4935,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C104" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4777,10 +4946,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4788,10 +4957,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C106" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4799,10 +4968,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C107" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4810,10 +4979,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C108" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4821,10 +4990,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C109" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4832,10 +5001,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C110" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4843,10 +5012,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C111" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4854,10 +5023,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C112" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4865,10 +5034,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C113" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4876,10 +5045,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C114" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4887,10 +5056,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C115" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4898,10 +5067,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C116" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4909,10 +5078,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C117" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4920,10 +5089,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C118" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4931,10 +5100,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4942,10 +5111,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C120" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4953,10 +5122,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C121" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4964,10 +5133,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4975,10 +5144,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C123" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4986,10 +5155,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C124" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4997,10 +5166,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C125" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5008,10 +5177,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5019,10 +5188,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5030,10 +5199,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C128" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5041,10 +5210,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C129" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5052,10 +5221,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C130" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5063,10 +5232,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C131" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5074,10 +5243,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C132" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5085,10 +5254,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C133" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5096,10 +5265,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C134" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5107,10 +5276,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C135" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5118,10 +5287,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C136" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5129,10 +5298,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5140,10 +5309,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C138" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5151,10 +5320,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C139" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5162,10 +5331,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C140" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5173,10 +5342,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C141" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5184,10 +5353,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C142" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5195,10 +5364,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C143" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5206,10 +5375,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C144" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5217,10 +5386,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5228,10 +5397,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C146" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5239,10 +5408,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C147" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5250,10 +5419,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C148" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5261,10 +5430,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5272,10 +5441,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C150" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5283,10 +5452,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C151" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5294,10 +5463,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5305,10 +5474,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C153" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5316,10 +5485,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C154" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5327,10 +5496,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C155" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5338,10 +5507,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C156" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5349,10 +5518,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C157" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5360,10 +5529,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C158" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5371,10 +5540,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C159" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5382,10 +5551,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C160" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5393,10 +5562,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C161" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -5404,10 +5573,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C162" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5415,10 +5584,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C163" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5426,10 +5595,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C164" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -5437,10 +5606,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C165" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5448,10 +5617,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C166" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5459,10 +5628,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C167" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5470,10 +5639,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C168" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5481,10 +5650,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5492,10 +5661,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C170" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5503,10 +5672,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C171" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5514,10 +5683,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C172" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5525,10 +5694,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C173" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -5536,10 +5705,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C174" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5547,10 +5716,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C175" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5558,10 +5727,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C176" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5569,10 +5738,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C177" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5580,10 +5749,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C178" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5591,10 +5760,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C179" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5602,10 +5771,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C180" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5613,10 +5782,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C181" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5624,10 +5793,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C182" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5635,10 +5804,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C183" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5646,10 +5815,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C184" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5657,10 +5826,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C185" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5668,10 +5837,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C186" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5679,10 +5848,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C187" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5690,10 +5859,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C188" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5701,10 +5870,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C189" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5712,10 +5881,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C190" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5723,10 +5892,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C191" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5734,10 +5903,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C192" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5745,10 +5914,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C193" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5756,10 +5925,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C194" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5767,10 +5936,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C195" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5778,10 +5947,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C196" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5789,10 +5958,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C197" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5800,10 +5969,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C198" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5811,10 +5980,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C199" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5822,10 +5991,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C200" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -5833,10 +6002,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C201" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -5844,10 +6013,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C202" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -5855,10 +6024,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C203" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -5866,10 +6035,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C204" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -5877,10 +6046,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C205" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -5888,10 +6057,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C206" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -5899,10 +6068,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C207" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -5910,10 +6079,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C208" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -5921,10 +6090,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C209" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -5932,10 +6101,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C210" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -5943,10 +6112,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C211" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -5954,10 +6123,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C212" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -5965,10 +6134,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C213" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -5976,10 +6145,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C214" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -5987,10 +6156,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C215" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -5998,10 +6167,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C216" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -6009,10 +6178,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C217" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -6020,10 +6189,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C218" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -6031,10 +6200,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C219" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6042,10 +6211,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C220" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -6053,10 +6222,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C221" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -6064,10 +6233,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C222" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6075,10 +6244,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C223" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -6086,10 +6255,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C224" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6097,10 +6266,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C225" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6108,10 +6277,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C226" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6119,10 +6288,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C227" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6130,10 +6299,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C228" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6141,10 +6310,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C229" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6152,10 +6321,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C230" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6163,10 +6332,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C231" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6174,10 +6343,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C232" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6185,10 +6354,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C233" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6196,10 +6365,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C234" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6207,10 +6376,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C235" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6218,10 +6387,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C236" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6229,10 +6398,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C237" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6240,10 +6409,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C238" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6251,10 +6420,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C239" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6262,10 +6431,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C240" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6273,10 +6442,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C241" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6284,10 +6453,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C242" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6295,10 +6464,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C243" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -6306,10 +6475,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C244" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -6317,10 +6486,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C245" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -6328,10 +6497,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C246" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6339,10 +6508,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C247" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -6350,10 +6519,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C248" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -6361,10 +6530,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C249" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6372,10 +6541,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C250" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -6383,10 +6552,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C251" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -6394,10 +6563,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C252" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -6405,10 +6574,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C253" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -6416,10 +6585,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C254" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6427,10 +6596,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C255" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6438,10 +6607,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C256" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6449,10 +6618,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C257" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6460,10 +6629,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C258" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6471,10 +6640,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C259" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6482,10 +6651,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C260" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6493,10 +6662,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C261" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6504,10 +6673,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C262" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6515,10 +6684,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C263" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -6526,10 +6695,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C264" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6537,10 +6706,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C265" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6548,10 +6717,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C266" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6559,10 +6728,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C267" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -6570,10 +6739,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C268" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6581,10 +6750,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C269" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6592,10 +6761,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C270" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6603,10 +6772,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C271" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6614,10 +6783,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C272" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6625,10 +6794,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C273" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6636,10 +6805,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C274" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6647,10 +6816,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C275" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6658,10 +6827,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C276" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6669,10 +6838,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C277" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6680,10 +6849,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="C278" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6691,10 +6860,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C279" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6702,10 +6871,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="C280" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6713,10 +6882,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C281" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6724,10 +6893,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C282" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6735,10 +6904,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C283" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6746,10 +6915,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C284" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6757,10 +6926,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C285" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6768,10 +6937,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C286" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6779,10 +6948,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C287" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6790,10 +6959,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C288" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6801,10 +6970,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C289" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6812,10 +6981,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C290" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -6848,7 +7017,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
@@ -6856,10 +7025,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6867,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6875,7 +7044,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6908,7 +7077,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
@@ -6916,10 +7085,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -6937,10 +7106,10 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
@@ -6949,10 +7118,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="B1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6960,10 +7129,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6971,10 +7140,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6982,10 +7151,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6993,10 +7162,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7004,10 +7173,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7015,10 +7184,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7026,10 +7195,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7037,10 +7206,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7048,10 +7217,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7059,10 +7228,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7070,10 +7239,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7081,10 +7250,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7092,10 +7261,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7103,10 +7272,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7114,10 +7283,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7125,10 +7294,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7136,10 +7305,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7147,10 +7316,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7177,13 +7346,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" customWidth="1"/>
@@ -7191,10 +7360,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7202,10 +7371,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7213,10 +7382,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7224,10 +7393,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7235,10 +7404,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7246,10 +7415,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7257,10 +7426,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7268,10 +7437,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7279,10 +7448,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7290,10 +7459,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>762</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7304,7 +7473,7 @@
         <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7312,10 +7481,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7323,10 +7492,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>763</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7334,10 +7503,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7345,10 +7514,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7356,10 +7525,109 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>788</v>
+      </c>
+      <c r="C21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>789</v>
+      </c>
+      <c r="C23" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>766</v>
+      </c>
+      <c r="C25" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -7375,13 +7643,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G51" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1640625" customWidth="1"/>
@@ -7400,10 +7668,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>761</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7411,10 +7679,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7422,10 +7690,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7433,10 +7701,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7444,10 +7712,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7455,10 +7723,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7466,10 +7734,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7477,10 +7745,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7488,10 +7756,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7499,10 +7767,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7510,10 +7778,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7521,10 +7789,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7532,10 +7800,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7543,10 +7811,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>762</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>762</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7554,10 +7822,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7565,10 +7833,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7576,10 +7844,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7587,10 +7855,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7598,10 +7866,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7609,10 +7877,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7620,10 +7888,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>763</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7631,10 +7899,373 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>764</v>
+      </c>
+      <c r="C24" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>765</v>
+      </c>
+      <c r="C27" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>766</v>
+      </c>
+      <c r="C30" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>767</v>
+      </c>
+      <c r="C31" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>768</v>
+      </c>
+      <c r="C34" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>769</v>
+      </c>
+      <c r="C35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>770</v>
+      </c>
+      <c r="C36" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>771</v>
+      </c>
+      <c r="C37" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>772</v>
+      </c>
+      <c r="C38" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>773</v>
+      </c>
+      <c r="C40" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>774</v>
+      </c>
+      <c r="C41" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>775</v>
+      </c>
+      <c r="C42" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>776</v>
+      </c>
+      <c r="C43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>777</v>
+      </c>
+      <c r="C45" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>778</v>
+      </c>
+      <c r="C46" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>779</v>
+      </c>
+      <c r="C47" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>780</v>
+      </c>
+      <c r="C48" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>781</v>
+      </c>
+      <c r="C49" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>782</v>
+      </c>
+      <c r="C50" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>663</v>
+      </c>
+      <c r="C51" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>783</v>
+      </c>
+      <c r="C52" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>784</v>
+      </c>
+      <c r="C53" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>785</v>
+      </c>
+      <c r="C54" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>786</v>
+      </c>
+      <c r="C55" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>787</v>
+      </c>
+      <c r="C56" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -7656,7 +8287,7 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
@@ -7664,10 +8295,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7675,10 +8306,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7686,10 +8317,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7697,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -7708,10 +8339,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C5" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7743,10 +8374,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -7754,10 +8385,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7783,11 +8414,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:B142"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:XFD142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -7806,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7814,7 +8445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7822,7 +8453,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7830,7 +8461,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7838,7 +8469,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7846,7 +8477,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7854,7 +8485,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7862,7 +8493,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7870,7 +8501,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7878,7 +8509,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7886,7 +8517,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7894,7 +8525,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7902,7 +8533,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7910,7 +8541,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7918,7 +8549,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7926,7 +8557,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7934,7 +8565,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7942,7 +8573,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7950,7 +8581,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7958,7 +8589,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7966,7 +8597,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7974,7 +8605,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7982,7 +8613,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7990,7 +8621,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7998,7 +8629,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8006,7 +8637,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8014,7 +8645,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8022,7 +8653,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8030,7 +8661,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8038,7 +8669,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8046,7 +8677,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8054,7 +8685,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8062,7 +8693,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8070,7 +8701,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8078,7 +8709,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8086,7 +8717,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8094,7 +8725,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8102,7 +8733,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8110,7 +8741,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8118,7 +8749,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8126,7 +8757,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8134,7 +8765,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8142,7 +8773,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8150,7 +8781,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8158,7 +8789,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8166,7 +8797,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8174,7 +8805,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8182,7 +8813,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8190,7 +8821,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8198,7 +8829,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8206,7 +8837,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8214,7 +8845,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8222,7 +8853,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8230,7 +8861,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8238,7 +8869,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8246,7 +8877,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8254,7 +8885,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8262,7 +8893,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8270,7 +8901,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8278,7 +8909,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8286,7 +8917,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8294,7 +8925,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8302,7 +8933,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8310,7 +8941,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8318,7 +8949,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8326,7 +8957,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8334,7 +8965,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8342,7 +8973,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8350,7 +8981,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8358,7 +8989,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8366,7 +8997,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8374,7 +9005,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -8382,7 +9013,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8390,7 +9021,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8398,7 +9029,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -8406,7 +9037,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -8414,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -8422,7 +9053,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -8430,7 +9061,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8438,7 +9069,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8446,7 +9077,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -8454,7 +9085,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8462,7 +9093,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8470,7 +9101,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8478,7 +9109,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -8486,7 +9117,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -8494,7 +9125,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -8502,7 +9133,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -8510,7 +9141,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -8518,7 +9149,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -8526,7 +9157,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -8534,7 +9165,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -8542,7 +9173,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -8550,7 +9181,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -8558,7 +9189,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -8566,7 +9197,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -8574,7 +9205,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -8582,7 +9213,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -8590,7 +9221,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -8598,7 +9229,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -8606,7 +9237,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8614,7 +9245,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -8622,7 +9253,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -8630,7 +9261,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -8638,7 +9269,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -8646,7 +9277,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -8654,7 +9285,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -8662,7 +9293,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -8670,7 +9301,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -8678,7 +9309,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -8686,7 +9317,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -8694,7 +9325,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -8702,7 +9333,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -8710,7 +9341,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -8718,7 +9349,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -8726,7 +9357,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -8734,7 +9365,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -8742,7 +9373,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -8750,7 +9381,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -8758,7 +9389,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -8766,7 +9397,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8774,7 +9405,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8782,7 +9413,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8790,7 +9421,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -8798,7 +9429,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8806,7 +9437,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8814,7 +9445,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -8822,7 +9453,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -8830,7 +9461,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -8838,7 +9469,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8846,7 +9477,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8854,7 +9485,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -8862,7 +9493,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8870,7 +9501,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8878,7 +9509,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8886,7 +9517,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8894,7 +9525,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8902,7 +9533,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8910,7 +9541,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8918,7 +9549,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="142" spans="1:2">

--- a/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
+++ b/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="2020" windowWidth="32000" windowHeight="17500" tabRatio="951" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="1220" yWindow="1080" windowWidth="21860" windowHeight="18420" tabRatio="951" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Facility" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="795">
   <si>
     <t>JurisdictionTypeID</t>
   </si>
@@ -193,9 +193,6 @@
     <t>WATCH COMMANDER RELEASE</t>
   </si>
   <si>
-    <t>SLIT BOND</t>
-  </si>
-  <si>
     <t>PR BOND - SRP CO-SIGN</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>CASH/SURETY/PROPERTY-SRP</t>
   </si>
   <si>
-    <t>CASG/SURETY SRP</t>
-  </si>
-  <si>
     <t>FINES AND COST RELEASE</t>
   </si>
   <si>
@@ -2408,13 +2402,34 @@
   </si>
   <si>
     <t>PEND</t>
+  </si>
+  <si>
+    <t>CASH/SURETY SRP</t>
+  </si>
+  <si>
+    <t>SPLIT BOND</t>
+  </si>
+  <si>
+    <t>PROPERTY BOND</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>CREDIT CARD</t>
+  </si>
+  <si>
+    <t>CRED</t>
+  </si>
+  <si>
+    <t>PR BOND COSIGNED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2459,6 +2474,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2477,7 +2497,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2596,13 +2616,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="126">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2661,6 +2690,10 @@
     <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2719,6 +2752,10 @@
     <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="77"/>
   </cellStyles>
@@ -3082,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2">
         <v>1728</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3096,10 +3133,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3107,10 +3144,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3162,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3173,10 +3210,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3219,10 +3256,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B1" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3259,10 +3296,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3270,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3281,10 +3318,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3292,10 +3329,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3303,10 +3340,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3314,10 +3351,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3325,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3336,10 +3373,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3380,10 +3417,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3391,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3402,10 +3439,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3447,10 +3484,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3534,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3547,10 +3584,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3558,10 +3595,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3569,10 +3606,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3616,10 +3653,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3657,10 +3694,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3668,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3676,7 +3713,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3717,10 +3754,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3749,7 +3786,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="CL1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3761,10 +3798,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3789,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C291"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:XFD291"/>
+    <sheetView topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3802,10 +3839,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3813,10 +3850,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3824,10 +3861,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3835,10 +3872,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3846,10 +3883,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3857,10 +3894,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3868,10 +3905,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3879,10 +3916,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3890,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3901,10 +3938,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3912,10 +3949,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3923,10 +3960,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3934,10 +3971,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3945,10 +3982,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3956,10 +3993,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3967,10 +4004,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3978,10 +4015,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3989,10 +4026,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4000,10 +4037,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4011,10 +4048,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4022,10 +4059,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4033,10 +4070,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4044,10 +4081,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4055,10 +4092,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -4066,10 +4103,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4077,10 +4114,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4088,10 +4125,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4099,10 +4136,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -4110,10 +4147,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -4121,10 +4158,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -4132,10 +4169,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4143,10 +4180,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -4154,10 +4191,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -4165,10 +4202,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -4176,10 +4213,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -4187,10 +4224,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -4198,10 +4235,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -4209,10 +4246,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -4220,10 +4257,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -4231,10 +4268,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -4242,10 +4279,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -4253,10 +4290,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -4264,10 +4301,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4275,10 +4312,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4286,10 +4323,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -4297,10 +4334,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4308,10 +4345,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4319,10 +4356,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4330,10 +4367,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4341,10 +4378,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4352,10 +4389,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4363,10 +4400,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C52" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4374,10 +4411,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C53" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4385,10 +4422,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4396,10 +4433,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4407,10 +4444,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4418,10 +4455,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C57" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4429,10 +4466,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4440,10 +4477,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4451,10 +4488,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4462,10 +4499,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4473,10 +4510,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4484,10 +4521,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4495,10 +4532,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4506,10 +4543,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4517,10 +4554,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4528,10 +4565,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4539,7 +4576,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -4550,10 +4587,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4561,10 +4598,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4572,10 +4609,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4583,10 +4620,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4594,10 +4631,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4605,10 +4642,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4616,10 +4653,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4627,10 +4664,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C76" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4638,10 +4675,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4649,10 +4686,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4660,10 +4697,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C79" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4671,10 +4708,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C80" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4682,10 +4719,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4693,10 +4730,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C82" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4704,10 +4741,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C83" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4715,10 +4752,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C84" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4726,10 +4763,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4737,10 +4774,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4748,10 +4785,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C87" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4759,10 +4796,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4770,10 +4807,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C89" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4781,10 +4818,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4792,10 +4829,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C91" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4803,10 +4840,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4814,10 +4851,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C93" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4825,10 +4862,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C94" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4836,10 +4873,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4847,10 +4884,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C96" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4858,10 +4895,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4869,10 +4906,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4880,10 +4917,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4891,10 +4928,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C100" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4902,10 +4939,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C101" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4913,10 +4950,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C102" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4924,10 +4961,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C103" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4935,10 +4972,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C104" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4946,10 +4983,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4957,10 +4994,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C106" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4968,10 +5005,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C107" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4979,10 +5016,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C108" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4990,10 +5027,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C109" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -5001,10 +5038,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C110" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -5012,10 +5049,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -5023,10 +5060,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C112" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -5034,10 +5071,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C113" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -5045,10 +5082,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C114" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -5056,10 +5093,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C115" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -5067,10 +5104,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C116" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -5078,10 +5115,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -5089,10 +5126,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C118" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -5100,10 +5137,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C119" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -5111,10 +5148,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C120" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -5122,10 +5159,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C121" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -5133,10 +5170,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C122" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -5144,10 +5181,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C123" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -5155,10 +5192,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C124" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -5166,10 +5203,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C125" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -5177,10 +5214,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -5188,10 +5225,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C127" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -5199,10 +5236,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C128" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -5210,10 +5247,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C129" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -5221,10 +5258,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C130" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -5232,10 +5269,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C131" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -5243,10 +5280,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C132" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -5254,10 +5291,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C133" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -5265,10 +5302,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C134" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -5276,10 +5313,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C135" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -5287,10 +5324,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C136" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -5298,10 +5335,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C137" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -5309,10 +5346,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C138" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -5320,10 +5357,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -5331,10 +5368,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C140" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -5342,10 +5379,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C141" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -5353,10 +5390,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C142" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -5364,10 +5401,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C143" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -5375,10 +5412,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C144" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -5386,10 +5423,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -5397,10 +5434,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -5408,10 +5445,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C147" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -5419,10 +5456,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C148" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -5430,10 +5467,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C149" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -5441,10 +5478,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C150" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -5452,10 +5489,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C151" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -5463,10 +5500,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C152" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -5474,10 +5511,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C153" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -5485,10 +5522,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C154" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -5496,10 +5533,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C155" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -5507,10 +5544,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C156" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -5518,10 +5555,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C157" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5529,10 +5566,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C158" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5540,10 +5577,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C159" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5551,10 +5588,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C160" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -5562,10 +5599,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C161" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -5573,10 +5610,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C162" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -5584,10 +5621,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C163" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -5595,10 +5632,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C164" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -5606,10 +5643,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C165" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -5617,10 +5654,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C166" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -5628,10 +5665,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C167" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -5639,10 +5676,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C168" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -5650,10 +5687,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C169" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -5661,10 +5698,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C170" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -5672,10 +5709,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C171" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -5683,10 +5720,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C172" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -5694,10 +5731,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C173" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -5705,10 +5742,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C174" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -5716,10 +5753,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C175" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -5727,10 +5764,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C176" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -5738,10 +5775,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C177" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5749,10 +5786,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C178" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -5760,10 +5797,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C179" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -5771,10 +5808,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C180" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -5782,10 +5819,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C181" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -5793,10 +5830,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C182" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -5804,10 +5841,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C183" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -5815,10 +5852,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C184" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -5826,10 +5863,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C185" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -5837,10 +5874,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C186" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -5848,10 +5885,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C187" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -5859,10 +5896,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C188" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -5870,10 +5907,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C189" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -5881,10 +5918,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C190" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -5892,10 +5929,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C191" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -5903,10 +5940,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C192" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -5914,10 +5951,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C193" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -5925,10 +5962,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C194" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -5936,10 +5973,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C195" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -5947,10 +5984,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C196" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -5958,10 +5995,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C197" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -5969,10 +6006,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C198" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -5980,10 +6017,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C199" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -5991,10 +6028,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C200" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -6002,10 +6039,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C201" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -6013,10 +6050,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C202" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -6024,10 +6061,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C203" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6035,10 +6072,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C204" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -6046,10 +6083,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C205" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -6057,10 +6094,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C206" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -6068,10 +6105,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C207" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -6079,10 +6116,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C208" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -6090,10 +6127,10 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C209" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -6101,10 +6138,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C210" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -6112,10 +6149,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C211" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -6123,10 +6160,10 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C212" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -6134,10 +6171,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C213" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -6145,10 +6182,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C214" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -6156,10 +6193,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C215" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -6167,10 +6204,10 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C216" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -6178,10 +6215,10 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C217" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -6189,10 +6226,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C218" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -6200,10 +6237,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C219" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6211,10 +6248,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C220" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -6222,10 +6259,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C221" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -6233,10 +6270,10 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C222" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -6244,10 +6281,10 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C223" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -6255,10 +6292,10 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C224" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -6266,10 +6303,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C225" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -6277,10 +6314,10 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C226" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6288,10 +6325,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C227" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -6299,10 +6336,10 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C228" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6310,10 +6347,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C229" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -6321,10 +6358,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C230" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -6332,10 +6369,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C231" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -6343,10 +6380,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C232" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -6354,10 +6391,10 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C233" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -6365,10 +6402,10 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C234" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -6376,10 +6413,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C235" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -6387,10 +6424,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C236" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6398,10 +6435,10 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C237" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -6409,10 +6446,10 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C238" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6420,10 +6457,10 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C239" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -6431,10 +6468,10 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C240" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -6442,10 +6479,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C241" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -6453,10 +6490,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C242" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -6464,10 +6501,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C243" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -6475,10 +6512,10 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C244" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -6486,10 +6523,10 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C245" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -6497,10 +6534,10 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C246" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -6508,10 +6545,10 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C247" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -6519,10 +6556,10 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C248" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -6530,10 +6567,10 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C249" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -6541,10 +6578,10 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C250" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -6552,10 +6589,10 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C251" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -6563,10 +6600,10 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C252" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -6574,10 +6611,10 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C253" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -6585,10 +6622,10 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C254" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -6596,10 +6633,10 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C255" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -6607,10 +6644,10 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C256" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -6618,10 +6655,10 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C257" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -6629,10 +6666,10 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C258" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -6640,10 +6677,10 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C259" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -6651,10 +6688,10 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C260" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -6662,10 +6699,10 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C261" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -6673,10 +6710,10 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C262" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -6684,10 +6721,10 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C263" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -6695,10 +6732,10 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C264" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -6706,10 +6743,10 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C265" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -6717,10 +6754,10 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C266" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -6728,10 +6765,10 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C267" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -6739,10 +6776,10 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C268" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -6750,10 +6787,10 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C269" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -6761,10 +6798,10 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C270" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -6772,10 +6809,10 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C271" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -6783,10 +6820,10 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C272" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -6794,10 +6831,10 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C273" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -6805,10 +6842,10 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C274" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -6816,10 +6853,10 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C275" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -6827,10 +6864,10 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C276" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -6838,10 +6875,10 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C277" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -6849,10 +6886,10 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C278" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -6860,10 +6897,10 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C279" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -6871,10 +6908,10 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C280" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -6882,10 +6919,10 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C281" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -6893,10 +6930,10 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C282" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6904,10 +6941,10 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C283" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -6915,10 +6952,10 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C284" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -6926,10 +6963,10 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C285" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -6937,10 +6974,10 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C286" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -6948,10 +6985,10 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C287" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -6959,10 +6996,10 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C288" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -6970,10 +7007,10 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C289" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -6981,10 +7018,10 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C290" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -7025,10 +7062,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7036,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7044,7 +7081,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7085,10 +7122,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -7118,10 +7155,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7129,10 +7166,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7140,10 +7177,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7151,10 +7188,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7162,10 +7199,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7173,10 +7210,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7184,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7195,10 +7232,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7206,10 +7243,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7217,10 +7254,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7228,10 +7265,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7239,10 +7276,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7250,10 +7287,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7261,10 +7298,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7272,10 +7309,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7283,10 +7320,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -7294,10 +7331,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7305,10 +7342,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7316,10 +7353,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7349,7 +7386,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7360,10 +7397,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7371,10 +7408,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7382,10 +7419,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7393,10 +7430,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7404,7 +7441,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>42</v>
@@ -7415,7 +7452,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -7426,10 +7463,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -7437,10 +7474,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -7448,10 +7485,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7459,10 +7496,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7470,7 +7507,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -7481,10 +7518,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7492,10 +7529,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C13" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -7503,10 +7540,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7514,10 +7551,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7536,10 +7573,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -7547,10 +7584,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7580,10 +7617,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C21" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7602,10 +7639,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C23" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7624,10 +7661,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C25" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -7643,10 +7680,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G51" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7667,11 +7704,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>761</v>
+      <c r="B2" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7690,7 +7727,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
@@ -7701,10 +7738,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7712,7 +7749,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -7745,10 +7782,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7789,7 +7826,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>788</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
@@ -7800,7 +7837,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>789</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -7811,10 +7848,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C15" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -7833,7 +7870,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -7866,10 +7903,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7877,10 +7914,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7888,10 +7925,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C22" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7899,7 +7936,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -7910,21 +7947,21 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C24" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
+      <c r="B25" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7943,10 +7980,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C27" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7954,10 +7991,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7965,7 +8002,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -7976,10 +8013,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C30" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7987,10 +8024,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C31" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7998,7 +8035,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
@@ -8009,10 +8046,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8020,10 +8057,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C34" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8031,10 +8068,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8042,10 +8079,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C36" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8053,10 +8090,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8064,10 +8101,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C38" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8075,10 +8112,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8086,10 +8123,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C40" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8097,10 +8134,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C41" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8108,10 +8145,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C42" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8119,10 +8156,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C43" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8130,10 +8167,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8141,10 +8178,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C45" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8152,10 +8189,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C46" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8163,10 +8200,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C47" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8174,10 +8211,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C48" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8185,10 +8222,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C49" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8196,10 +8233,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C50" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8207,10 +8244,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C51" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8218,10 +8255,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C52" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8229,10 +8266,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C53" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8240,10 +8277,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C54" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8251,10 +8288,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C55" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8262,10 +8299,32 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C56" t="s">
-        <v>787</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -8295,10 +8354,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -8306,10 +8365,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8317,10 +8376,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8328,7 +8387,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -8339,10 +8398,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8374,7 +8433,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8385,10 +8444,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8414,8 +8473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:XFD142"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8437,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8445,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8453,7 +8512,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8461,7 +8520,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8469,7 +8528,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8477,7 +8536,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8485,7 +8544,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8493,7 +8552,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8501,7 +8560,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8509,7 +8568,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8517,7 +8576,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8525,7 +8584,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8533,7 +8592,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8541,7 +8600,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8549,7 +8608,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8557,7 +8616,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8565,7 +8624,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8573,7 +8632,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8581,7 +8640,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8589,7 +8648,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8597,7 +8656,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8605,7 +8664,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8613,7 +8672,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8621,7 +8680,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8629,7 +8688,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8637,7 +8696,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8645,7 +8704,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8653,7 +8712,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8661,7 +8720,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8669,7 +8728,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8677,7 +8736,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8685,7 +8744,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8693,7 +8752,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8701,7 +8760,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8709,7 +8768,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8717,7 +8776,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8725,7 +8784,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8733,7 +8792,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8741,7 +8800,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8749,7 +8808,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8757,7 +8816,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8765,7 +8824,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8773,7 +8832,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8781,7 +8840,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8789,7 +8848,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8797,7 +8856,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8805,7 +8864,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8813,7 +8872,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8821,7 +8880,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8829,7 +8888,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8837,7 +8896,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8845,7 +8904,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8853,7 +8912,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8861,7 +8920,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8869,7 +8928,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8877,7 +8936,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8885,7 +8944,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8893,7 +8952,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8901,7 +8960,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8909,7 +8968,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -8917,7 +8976,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8925,7 +8984,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8933,7 +8992,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8941,7 +9000,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -8949,7 +9008,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8957,7 +9016,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8965,7 +9024,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8973,7 +9032,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -8981,7 +9040,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8989,7 +9048,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8997,7 +9056,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -9005,7 +9064,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -9013,7 +9072,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -9021,7 +9080,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9029,7 +9088,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -9037,7 +9096,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -9045,7 +9104,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -9053,7 +9112,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -9061,7 +9120,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9069,7 +9128,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9077,7 +9136,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -9085,7 +9144,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -9093,7 +9152,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -9101,7 +9160,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -9109,7 +9168,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -9117,7 +9176,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -9125,7 +9184,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -9133,7 +9192,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -9141,7 +9200,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -9149,7 +9208,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -9157,7 +9216,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -9165,7 +9224,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -9173,7 +9232,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -9181,7 +9240,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -9189,7 +9248,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -9197,7 +9256,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -9205,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -9213,7 +9272,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -9221,7 +9280,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -9229,7 +9288,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -9237,7 +9296,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -9245,7 +9304,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -9253,7 +9312,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -9261,7 +9320,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -9269,7 +9328,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -9277,7 +9336,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -9285,7 +9344,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -9293,7 +9352,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -9301,7 +9360,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -9309,7 +9368,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -9317,7 +9376,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -9325,7 +9384,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -9333,7 +9392,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -9341,7 +9400,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -9349,7 +9408,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -9357,7 +9416,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -9365,7 +9424,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -9373,7 +9432,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -9381,7 +9440,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -9389,7 +9448,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -9397,7 +9456,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -9405,7 +9464,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -9413,7 +9472,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -9421,7 +9480,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -9429,7 +9488,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -9437,7 +9496,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -9445,7 +9504,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -9453,7 +9512,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -9461,7 +9520,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -9469,7 +9528,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -9477,7 +9536,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -9485,7 +9544,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -9493,7 +9552,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -9501,7 +9560,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -9509,7 +9568,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -9517,7 +9576,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -9525,7 +9584,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -9533,7 +9592,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -9541,7 +9600,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -9549,7 +9608,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:2">

--- a/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
+++ b/adapters/custody-analytics-staging-adapter/src/test/resources/codeSpreadSheets/AdamsCountyAnalyticsCodeTables.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1080" windowWidth="21860" windowHeight="18420" tabRatio="951" activeTab="5"/>
+    <workbookView xWindow="1215" yWindow="1080" windowWidth="21855" windowHeight="15450" tabRatio="951" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Facility" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="805">
   <si>
     <t>JurisdictionTypeID</t>
   </si>
@@ -379,12 +379,6 @@
     <t>ESC</t>
   </si>
   <si>
-    <t>F2-F</t>
-  </si>
-  <si>
-    <t>F1-F</t>
-  </si>
-  <si>
     <t>FUR</t>
   </si>
   <si>
@@ -2423,6 +2417,42 @@
   </si>
   <si>
     <t>PR BOND COSIGNED</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>AMERICAN INDIAN/ ALASKAN NATIV</t>
+  </si>
+  <si>
+    <t>ASIAN</t>
+  </si>
+  <si>
+    <t>BLACK</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>NON-HISPANIC</t>
+  </si>
+  <si>
+    <t>HISPANIC</t>
   </si>
 </sst>
 </file>
@@ -3097,13 +3127,13 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -3114,7 +3144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3128,7 +3158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3139,7 +3169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3150,7 +3180,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3180,13 +3210,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3194,29 +3224,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3248,21 +3278,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3288,21 +3318,21 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3313,7 +3343,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3324,7 +3354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3335,7 +3365,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3346,7 +3376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3357,7 +3387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3368,7 +3398,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3379,7 +3409,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3403,27 +3433,27 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3433,8 +3463,11 @@
       <c r="C2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3444,8 +3477,11 @@
       <c r="C3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3454,6 +3490,9 @@
       </c>
       <c r="C4" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -3469,28 +3508,28 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
+    <col min="3" max="3" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3500,8 +3539,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3511,8 +3553,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3522,8 +3567,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3533,8 +3581,11 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3544,8 +3595,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3554,6 +3608,9 @@
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -3569,50 +3626,56 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3621,6 +3684,9 @@
       </c>
       <c r="C4" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -3645,21 +3711,21 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3686,37 +3752,37 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B1" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3746,21 +3812,21 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3790,21 +3856,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3830,3201 +3896,3201 @@
       <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C33" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C45" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C55" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C56" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C57" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C58" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C59" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C61" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C62" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C65" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C72" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C77" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C78" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C80" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C81" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C82" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C85" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C88" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C89" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C93" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C95" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C101" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C102" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C104" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C105" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C106" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C107" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C108" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C109" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C110" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C111" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C112" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C113" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C114" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C115" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C116" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C117" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C118" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C120" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C121" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C122" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C123" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C124" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C125" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C126" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C127" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C128" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C129" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C130" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C131" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C132" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C133" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C134" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C135" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C136" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C137" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C138" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C142" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C143" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C144" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C145" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C146" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C147" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C148" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C149" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C150" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C151" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C152" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C153" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C154" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C155" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C156" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C157" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C158" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C159" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C160" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C161" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C162" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C163" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C164" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C165" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C166" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C167" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C168" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C169" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C170" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C171" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C172" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C173" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C174" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C175" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C176" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C177" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C178" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C179" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C180" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C181" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C182" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C183" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C184" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C185" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C186" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C187" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C188" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C189" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C190" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C191" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C192" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C193" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C194" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C195" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C196" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C197" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C198" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C199" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C200" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C201" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C202" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C203" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C204" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C205" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C206" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C207" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C208" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C209" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C210" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C211" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C212" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C213" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C214" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C215" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C216" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C217" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C218" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C219" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C220" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C221" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C222" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C223" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C224" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C225" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C226" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C227" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C228" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C229" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C230" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C231" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C232" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C233" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C234" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C235" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C236" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C237" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C238" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C239" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C240" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C241" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C242" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C243" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C244" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C245" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C246" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C247" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C248" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C249" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C250" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C251" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C252" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C253" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C254" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C255" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C256" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C257" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C258" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C259" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C260" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C261" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C262" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C263" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C264" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C265" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C266" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C267" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C268" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C269" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C270" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C271" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C272" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C273" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C274" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C275" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C276" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C277" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C278" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C279" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C280" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C281" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C282" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C283" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C284" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C285" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C286" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C287" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C288" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C289" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C290" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -7054,37 +7120,37 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7114,18 +7180,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -7143,223 +7209,223 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7389,21 +7455,21 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7414,7 +7480,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7425,7 +7491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7436,7 +7502,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7447,7 +7513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7458,7 +7524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7469,7 +7535,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7480,7 +7546,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7491,18 +7557,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C10" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7513,7 +7579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7524,18 +7590,18 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C13" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7546,7 +7612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7557,7 +7623,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7568,7 +7634,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7579,7 +7645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7590,7 +7656,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7601,7 +7667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7612,18 +7678,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C21" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7634,18 +7700,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C23" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7656,15 +7722,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C25" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
@@ -7682,17 +7748,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7700,7 +7766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7708,10 +7774,10 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7722,7 +7788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7733,7 +7799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7744,7 +7810,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7755,7 +7821,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7766,7 +7832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7777,7 +7843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7788,7 +7854,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7799,7 +7865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7810,7 +7876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7821,40 +7887,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C15" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7865,7 +7931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7876,7 +7942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7887,7 +7953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7898,7 +7964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7909,7 +7975,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7920,18 +7986,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C22" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7942,29 +8008,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C24" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7975,18 +8041,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C27" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7997,7 +8063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8008,29 +8074,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C30" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C31" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8041,7 +8107,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8052,62 +8118,62 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C34" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C35" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C36" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C38" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8118,51 +8184,51 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C40" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C41" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C42" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C43" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8173,155 +8239,155 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C45" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C46" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C47" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C48" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C49" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C50" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C51" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C52" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C53" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C54" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C55" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C56" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>31</v>
@@ -8346,65 +8412,65 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C5" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8436,21 +8502,21 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8477,13 +8543,13 @@
       <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8491,1127 +8557,1127 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>99999</v>
       </c>
